--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project Workspace\Final Workspace\seventenMay25Practice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D75C71-9F95-40F9-9E22-BA4482BF15F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E1329-5F5B-4DEA-8F0A-955E5C7737C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46590" yWindow="4335" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40875" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>tgbrtlvuytl42$!</t>
   </si>
   <si>
-    <t>sssarat9@gmail.com</t>
-  </si>
-  <si>
-    <t>Sarat@398</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>2875t821o789</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>wtjkecrkw@3465</t>
   </si>
 </sst>
 </file>
@@ -382,37 +385,38 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>7978868290</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
